--- a/docs/requisitos.xlsx
+++ b/docs/requisitos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alban\OneDrive\Área de Trabalho\Materias_FATEC\5_Semestre\lab_engenharia_de_software\documentação tg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albano\Desktop\Fatec\sexto_semestre\tg_licita_sp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A4C892-21EF-4E19-AFDA-804B529A3B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E376503-3AF7-400A-9C37-1711B937BEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>ID: RF001</t>
   </si>
@@ -36,9 +39,6 @@
     <t>Descrição →</t>
   </si>
   <si>
-    <t xml:space="preserve">O administrador deve poder cadastrar, listar, editar e excluir palavras-chave para buscar licitações.  </t>
-  </si>
-  <si>
     <t>Categoria: Funcional</t>
   </si>
   <si>
@@ -84,9 +84,6 @@
     <t xml:space="preserve">ID, Título, Conteúdo, Data da publicação, Palavras-chave relacionadas, Link, Status (Lida/Não lida)  </t>
   </si>
   <si>
-    <t xml:space="preserve">Busca deve ser executada periodicamente e manualmente pelo administrador.  </t>
-  </si>
-  <si>
     <t>ID: RF004</t>
   </si>
   <si>
@@ -153,15 +150,9 @@
     <t xml:space="preserve">Nome do Requisito: Tecnologias Utilizadas  </t>
   </si>
   <si>
-    <t xml:space="preserve">O sistema deve ser desenvolvido utilizando Python, Flask ou FastAPI, MySQL e um frontend simples em HTML, CSS e JS.  </t>
-  </si>
-  <si>
     <t>Categoria: Não Funcional</t>
   </si>
   <si>
-    <t xml:space="preserve">Python para backend, Flask/FastAPI como framework, MySQL para banco de dados, HTML/CSS/JS para frontend  </t>
-  </si>
-  <si>
     <t>ID: RNF002</t>
   </si>
   <si>
@@ -183,9 +174,6 @@
     <t xml:space="preserve">O scraping deve ser executado automaticamente uma vez por dia ou manualmente pelo administrador.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Execução via linha de comando ou interface  </t>
-  </si>
-  <si>
     <t>ID: RNF004</t>
   </si>
   <si>
@@ -196,6 +184,24 @@
   </si>
   <si>
     <t xml:space="preserve">Listagem de publicações, filtros, botões de ação  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioridades: Essencial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca deve ser executada periodicamente, automaticamente ou manualmente pelo administrador.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O usuário deve poder cadastrar, listar, editar e excluir palavras-chave para buscar licitações.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema deve ser desenvolvido utilizando Javascript, Node, Next.js, Puppeter, MySQL e um frontend simples.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node para backend, Next.js como framework, MySQL para banco de dados, HTML/CSS/JS para frontend  </t>
+  </si>
+  <si>
+    <t>Execução via linha de comando ou interface (github actions)</t>
   </si>
 </sst>
 </file>
@@ -531,17 +537,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:B65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.54296875" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" customWidth="1"/>
     <col min="2" max="2" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,436 +555,436 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
